--- a/data/income_statement/3digits/total/493_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/493_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>493-Other passenger land transport</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>493-Other passenger land transport</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>8615890.68433</v>
@@ -956,37 +862,42 @@
         <v>9878908.15226</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>12113623.03359</v>
+        <v>12115638.42737</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>14515425.76203</v>
+        <v>14535035.94741</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>15975874.36075</v>
+        <v>16161680.10844</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>18516402.43292</v>
+        <v>18791404.95692</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>20198746.48187</v>
+        <v>20658342.94758</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>22204948.55786</v>
+        <v>22294839.98889</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>27136235.82967</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>31008513.1555</v>
+        <v>31101905.1493</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>35984262.15984</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>36438120.39027</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>32588919.059</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>8053044.55092</v>
@@ -995,43 +906,48 @@
         <v>9196828.440339999</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>11306771.44062</v>
+        <v>11308632.70867</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>13720866.29528</v>
+        <v>13739654.5825</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>15174379.73604</v>
+        <v>15355692.10906</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>17639862.70806</v>
+        <v>17912863.70621</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>19167229.08307</v>
+        <v>19601006.06605</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>21187604.8087</v>
+        <v>21275183.21691</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>25883518.31284</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>29580217.95088</v>
+        <v>29669404.73006</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>34146307.72172999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>34591732.04752</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>30731750.01</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>324094.45276</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>356924.6800100001</v>
+        <v>356924.68001</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>441499.64693</v>
@@ -1040,31 +956,36 @@
         <v>355323.0419400001</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>292813.20526</v>
+        <v>295686.74001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>315840.36248</v>
+        <v>317630.97311</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>395670.43082</v>
+        <v>413432.71021</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>317090.66626</v>
+        <v>318081.82269</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>469720.97019</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>501238.86852</v>
+        <v>501603.7421</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>653949.09029</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>656014.6594700001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>361610.031</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>238751.68065</v>
@@ -1073,40 +994,45 @@
         <v>325155.03191</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>365351.94604</v>
+        <v>365506.07177</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>439236.4248099999</v>
+        <v>440058.32297</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>508681.41945</v>
+        <v>510301.25937</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>560699.3623799999</v>
+        <v>560910.2776</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>635846.9679800001</v>
+        <v>643904.17132</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>700253.0829</v>
+        <v>701574.94929</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>782996.54664</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>927056.3361000001</v>
+        <v>930896.6771399998</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1184005.34782</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>1190373.68328</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1495559.018</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>58358.66475</v>
+        <v>58358.66475000001</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>40552.65346</v>
@@ -1115,73 +1041,83 @@
         <v>51996.39616</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>53382.52275</v>
+        <v>53382.52275000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>64987.04483</v>
+        <v>64987.46514</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>104589.80295</v>
+        <v>104613.78962</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>98371.54544</v>
+        <v>99446.65013000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>119050.02368</v>
+        <v>120922.42047</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>144264.28594</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>178375.44185</v>
+        <v>178385.86169</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>177622.97197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>171863.59721</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>264306.94</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>54788.76553</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>35648.39465000001</v>
+        <v>35648.39465</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>43219.39395</v>
+        <v>43219.39395000001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>46822.93916</v>
+        <v>46822.93915999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>58872.33929</v>
+        <v>58872.45929</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>82560.75622</v>
+        <v>82584.74288999999</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>84248.11805999999</v>
+        <v>85202.62007999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>98463.61176</v>
+        <v>98711.86431999999</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>120812.66584</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>159122.33349</v>
+        <v>159132.75333</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>161462.82899</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>155688.23944</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>232809.686</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>3102.5573</v>
@@ -1196,16 +1132,16 @@
         <v>5426.64625</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>4797.70498</v>
+        <v>4798.005289999999</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>6348.656369999999</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>11916.49355</v>
+        <v>11949.68872</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>16232.6286</v>
+        <v>17856.77283</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>18288.32888</v>
@@ -1214,13 +1150,18 @@
         <v>13482.81615</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>12174.50801</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>12175.20801</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>10023.175</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>467.34192</v>
@@ -1241,64 +1182,74 @@
         <v>15680.39036</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>2206.93383</v>
+        <v>2294.34133</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>4353.78332</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>5163.291219999999</v>
+        <v>5163.291220000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>5770.292210000001</v>
+        <v>5770.29221</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>3985.63497</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>4000.14976</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>21474.079</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>8557532.019580001</v>
+        <v>8557532.019579999</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>9838355.498799998</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>12061626.63743</v>
+        <v>12063642.03121</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>14462043.23928</v>
+        <v>14481653.42466</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>15910887.31592</v>
+        <v>16096692.6433</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>18411812.62997</v>
+        <v>18686791.1673</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>20100374.93643</v>
+        <v>20558896.29745</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>22085898.53418</v>
+        <v>22173917.56842</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>26991971.54373</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>30830137.71365</v>
+        <v>30923519.28761</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>35806639.18787</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>36266256.79306</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>32324612.119</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>7526176.55566</v>
@@ -1307,37 +1258,42 @@
         <v>8758572.335580001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>10822972.39201</v>
+        <v>10824933.76967</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>12971066.8588</v>
+        <v>12989829.26221</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>14219691.19958</v>
+        <v>14398812.50723</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>16440189.76144</v>
+        <v>16702162.22846</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>17760062.2493</v>
+        <v>18191480.74409</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>19783102.1389</v>
+        <v>19853787.62186</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>24230503.0368</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>27998227.55653</v>
+        <v>28077897.44973001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>32412735.24653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>32782353.44455</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>29645177.639</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>203787.31478</v>
@@ -1346,19 +1302,19 @@
         <v>104768.59807</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>114946.63724</v>
+        <v>115353.35104</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>99574.63738000001</v>
+        <v>100939.87859</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>119339.32859</v>
+        <v>122757.03245</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>125811.92454</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>106766.16366</v>
+        <v>113399.85152</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>88915.38961</v>
@@ -1367,55 +1323,65 @@
         <v>154044.97332</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>260587.87186</v>
+        <v>261375.91316</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>323050.86444</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>326659.31874</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>210046.933</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>848603.00176</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>750678.8745599999</v>
+        <v>750678.87456</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>872538.4207799999</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>930457.9805900001</v>
+        <v>930489.5887900001</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>1056363.60993</v>
+        <v>1056873.01259</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>1125010.99051</v>
+        <v>1131822.20529</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>1291778.98931</v>
+        <v>1314659.20698</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>1515394.66328</v>
+        <v>1517697.05064</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>2007209.29553</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1701834.87763</v>
+        <v>1713486.09559</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>2027040.29844</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>2063306.41428</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2199912.839</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>6428508.31378</v>
@@ -1424,49 +1390,54 @@
         <v>7843682.48292</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>9803282.615480002</v>
+        <v>9804837.279340001</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>11895773.36693</v>
+        <v>11913119.25991</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>12980388.36268</v>
+        <v>13155582.56381</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>14980372.6079</v>
+        <v>15235533.86014</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>16124562.95019</v>
+        <v>16525978.42482</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>17912814.13883</v>
+        <v>17981197.23443</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>21670721.68143</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>25610155.77239</v>
+        <v>25676726.25547</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>29492379.69461</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>29817924.62517</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>26370261.995</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>45277.92534</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>59442.38002999999</v>
+        <v>59442.38003</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>32204.71851</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>45260.8739</v>
+        <v>45280.53492</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>63599.89838</v>
@@ -1475,7 +1446,7 @@
         <v>208994.23849</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>236954.14614</v>
+        <v>237443.26077</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>265977.94718</v>
@@ -1484,16 +1455,21 @@
         <v>398527.08652</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>425649.03465</v>
+        <v>426309.18551</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>570264.3890399999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>574463.08636</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>864955.872</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1031355.46392</v>
@@ -1502,37 +1478,42 @@
         <v>1079783.16322</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1238654.24542</v>
+        <v>1238708.26154</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1490976.38048</v>
+        <v>1491824.16245</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1691196.11634</v>
+        <v>1697880.13607</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1971622.86853</v>
+        <v>1984628.93884</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2340312.68713</v>
+        <v>2367415.55336</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2302796.39528</v>
+        <v>2320129.946560001</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2761468.50693</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>2831910.157120001</v>
+        <v>2845621.83788</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3393903.94134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3483903.34851</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>2679434.48</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1036301.3654</v>
@@ -1541,37 +1522,42 @@
         <v>1148718.84478</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1342858.81707</v>
+        <v>1342935.63337</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1470894.83537</v>
+        <v>1471825.06219</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1649298.9682</v>
+        <v>1653267.22223</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1959600.65564</v>
+        <v>1966517.05258</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>2150010.48754</v>
+        <v>2182033.92473</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2322400.53899</v>
+        <v>2331912.01835</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>2591216.21236</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2845794.69122</v>
+        <v>2859851.65069</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>3275434.147270001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>3357079.60574</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>3155088.796</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1171.83948</v>
@@ -1583,7 +1569,7 @@
         <v>2734.31531</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>4511.04553</v>
+        <v>4511.045529999999</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>8170.985019999999</v>
@@ -1601,16 +1587,21 @@
         <v>4897.545139999999</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>8780.33445</v>
+        <v>8780.334449999998</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>10308.4091</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>11647.915</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>149096.55094</v>
@@ -1619,115 +1610,130 @@
         <v>151573.18799</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>167101.26609</v>
+        <v>167122.88135</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>163250.79382</v>
+        <v>163459.92565</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>197925.65185</v>
+        <v>197925.7366</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>352299.64697</v>
+        <v>354501.34562</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>347999.71974</v>
+        <v>350677.28616</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>352124.81067</v>
+        <v>352958.09322</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>416630.72214</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>484227.1811700001</v>
+        <v>485928.47168</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>509701.7042700001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>533119.4678099999</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>394280.584</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>886032.9749800001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>994453.1928300001</v>
+        <v>994453.19283</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1173023.23567</v>
+        <v>1173078.43671</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1303132.99602</v>
+        <v>1303854.09101</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1443202.33133</v>
+        <v>1447170.50061</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1597758.48399</v>
+        <v>1602473.18228</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1789871.65417</v>
+        <v>1819217.52494</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1966839.87589</v>
+        <v>1975518.0727</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>2169687.94508</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2352787.1756</v>
+        <v>2365142.84456</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2755424.0339</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2813651.72883</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2749160.297</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-4945.901480000002</v>
+        <v>-4945.90148</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-68935.68156000001</v>
+        <v>-68935.68156</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-104204.57165</v>
+        <v>-104227.37183</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>20081.54511</v>
+        <v>19999.10026</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>41897.14813999999</v>
+        <v>44612.91383999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>12022.21288999998</v>
+        <v>18111.88626</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>190302.19959</v>
+        <v>185381.62863</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-19604.14371</v>
+        <v>-11782.07178999999</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>170252.29457</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-13884.53410000002</v>
+        <v>-14229.81281</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>118469.79407</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>126823.74277</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-475654.316</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>155437.09998</v>
@@ -1739,37 +1745,42 @@
         <v>213167.20383</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>283213.12544</v>
+        <v>283295.57191</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>304359.48832</v>
+        <v>307246.36915</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>358220.09192</v>
+        <v>361942.03622</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>479374.74593</v>
+        <v>490373.76813</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>487678.76974</v>
+        <v>492226.27929</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>511359.69679</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>758041.17693</v>
+        <v>758096.8579799999</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>761347.75696</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>778171.53942</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>615291.7439999999</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>4328.53277</v>
+        <v>4328.532770000001</v>
       </c>
       <c r="D26" s="48" t="n">
         <v>3628.24879</v>
@@ -1787,10 +1798,10 @@
         <v>8449.972709999998</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>10305.82271</v>
+        <v>10311.72271</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>18156.01078</v>
+        <v>18156.06292</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>3092.33497</v>
@@ -1799,13 +1810,18 @@
         <v>7234.703320000001</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>18018.8108</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>18023.70957</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>8152.312</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>354.34756</v>
@@ -1817,10 +1833,10 @@
         <v>7266.07336</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>5421.177929999999</v>
+        <v>5421.17793</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>15132.18157</v>
+        <v>15138.92395</v>
       </c>
       <c r="H27" s="48" t="n">
         <v>21413.81429</v>
@@ -1838,13 +1854,18 @@
         <v>77949.03589</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>106178.69592</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>121270.93677</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>867.6079999999999</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>17749.68384</v>
@@ -1856,46 +1877,51 @@
         <v>32473.44649</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>47899.74619</v>
+        <v>47917.79807</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>56532.55102000001</v>
+        <v>58589.94178</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>55986.86214</v>
+        <v>56026.83596</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>65784.9988</v>
+        <v>66943.09957000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>49365.84277</v>
+        <v>50217.82338</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>66362.07961</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>84764.98414999999</v>
+        <v>84786.37125</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>80075.50437000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>80122.5914</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>70922.961</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>10806.16087</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>7788.752060000001</v>
+        <v>7788.752059999999</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>10139.63197</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>12987.80929</v>
+        <v>13039.79878</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>10334.59306</v>
@@ -1904,25 +1930,30 @@
         <v>16787.58579</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>11636.47148</v>
+        <v>11663.77911</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>11958.81445</v>
+        <v>12118.42127</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>8231.83582</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>19958.86163</v>
+        <v>19959.30652</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>7324.46725</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>7532.661700000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>5880.683</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>987.3665100000001</v>
@@ -1940,16 +1971,16 @@
         <v>4896.21961</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2331.901690000001</v>
+        <v>2515.72549</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2765.20135</v>
+        <v>3065.30535</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>3356.49814</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>4015.407000000001</v>
+        <v>4015.407</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>12218.36769</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>5339.20993</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>3012.264</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>4009.57153</v>
@@ -1973,16 +2009,16 @@
         <v>1341.68483</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>9848.49135</v>
+        <v>9849.41706</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1084.96188</v>
+        <v>1383.01494</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>4590.54179</v>
+        <v>4592.66018</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>1559.45565</v>
+        <v>3417.13453</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>2528.5182</v>
@@ -1991,55 +2027,65 @@
         <v>6895.24954</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>5148.312449999999</v>
+        <v>5148.31245</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>4055.26936</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>66415.253</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>29919.23337</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>52542.43688</v>
+        <v>52542.43687999999</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>45475.27095999999</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>51052.31941</v>
+        <v>51062.37557</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>60022.73076000001</v>
+        <v>60174.01927</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>69939.40374999998</v>
+        <v>70276.20213999999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>148077.01778</v>
+        <v>151889.175</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>80303.70415000001</v>
+        <v>81765.89761</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>115752.13856</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>316247.5516599999</v>
+        <v>316247.82255</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>193212.44955</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>193234.99059</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>131732.026</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>183.88877</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>64.62589</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>9.991</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>214.09439</v>
@@ -2113,14 +2164,19 @@
       <c r="M34" s="48" t="n">
         <v>22.96346</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>399.53</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>86884.22037000001</v>
+        <v>86884.22037</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>94057.25055000001</v>
@@ -2129,34 +2185,39 @@
         <v>111118.25967</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>146633.89733</v>
+        <v>146635.32056</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>146979.40747</v>
+        <v>147352.81359</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>175637.74058</v>
+        <v>178796.97048</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>217091.8404</v>
+        <v>220929.6141</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>308952.62989</v>
+        <v>311026.30641</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>288267.29132</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>233922.92498</v>
+        <v>233956.50315</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>347055.76043</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>348504.58075</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>327899.116</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>79976.90910999999</v>
@@ -2168,34 +2229,39 @@
         <v>137336.95619</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>113436.07672</v>
+        <v>113477.79513</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>189436.13761</v>
+        <v>190278.24198</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>172772.84038</v>
+        <v>174084.98665</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>346002.04858</v>
+        <v>350338.20352</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>306482.75793</v>
+        <v>308272.65377</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>376563.33787</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>625412.9792300001</v>
+        <v>625416.90354</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>410872.7329499999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>411050.4476199999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>297396.774</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>8182.712880000001</v>
@@ -2207,19 +2273,19 @@
         <v>11121.01079</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>7726.206330000001</v>
+        <v>7726.20633</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>10779.96751</v>
+        <v>10787.63297</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>11540.70605</v>
+        <v>11608.90144</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>10982.98645</v>
+        <v>11120.52379</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>12611.44073</v>
+        <v>12690.98878</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>14769.79247</v>
@@ -2228,13 +2294,18 @@
         <v>19012.1904</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>21448.92224</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>21636.84746</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>12791.661</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>7119.92564</v>
@@ -2249,13 +2320,13 @@
         <v>14695.69556</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>10622.96877</v>
+        <v>10637.18365</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>14019.33038</v>
+        <v>14414.95102</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>8138.075559999999</v>
+        <v>9019.92765</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>14287.27059</v>
@@ -2269,14 +2340,19 @@
       <c r="M38" s="48" t="n">
         <v>16028.46282</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>33236.957</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>914.2904199999999</v>
+        <v>914.29042</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>1075.36914</v>
@@ -2294,7 +2370,7 @@
         <v>3584.91456</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>807.294</v>
+        <v>819.6904799999999</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>522.91787</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>4134.091520000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1026.311</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>34411.71992</v>
@@ -2324,34 +2405,39 @@
         <v>82556.65703999999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>36460.63037</v>
+        <v>36502.34878</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>119446.16586</v>
+        <v>119865.50554</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>56746.18977</v>
+        <v>57421.73128</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>222059.35067</v>
+        <v>224220.36248</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>170669.92671</v>
+        <v>172300.26741</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>235183.30952</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>498545.12386</v>
+        <v>498547.66573</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>297321.16175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>297334.54009</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>172491.145</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>120.63061</v>
@@ -2384,13 +2470,18 @@
         <v>1822.1767</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>805.6114799999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>805.61148</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>738.436</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>163.70797</v>
@@ -2408,7 +2499,7 @@
         <v>32.30766</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>68.55373999999999</v>
+        <v>68.55374</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>297.3477</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>28.24116</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>3.364</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>29063.92167</v>
@@ -2441,34 +2537,39 @@
         <v>38035.24176</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>52389.36572999999</v>
+        <v>52389.36573</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>46644.04318</v>
+        <v>47044.92752999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>86588.11049000001</v>
+        <v>86760.89921999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>103309.45088</v>
+        <v>104452.8081</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>105278.70124</v>
+        <v>105358.70833</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>101021.15965</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>78750.83453000001</v>
+        <v>78752.21696999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>71106.24197999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>71082.65309000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>77108.89999999999</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>168995.05322</v>
@@ -2477,37 +2578,42 @@
         <v>164787.34092</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>181565.46669</v>
+        <v>181569.09588</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>258432.53824</v>
+        <v>258824.80023</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>306998.39672</v>
+        <v>313330.0087</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>342949.84556</v>
+        <v>350707.92762</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>448254.88132</v>
+        <v>463953.2045100001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>588488.5658999999</v>
+        <v>589373.76075</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>669449.2526499999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>954147.76797</v>
+        <v>954407.10088</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1054330.3734</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1060999.07682</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>890763.755</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>143993.35276</v>
@@ -2516,37 +2622,42 @@
         <v>142142.81249</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>166663.07537</v>
+        <v>166666.70456</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>238320.01484</v>
+        <v>238708.4107</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>284947.4005</v>
+        <v>291279.01248</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>318373.60072</v>
+        <v>326100.58011</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>408077.21274</v>
+        <v>423506.71852</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>552602.1285499999</v>
+        <v>553487.3234</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>630804.99438</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>906954.13479</v>
+        <v>907206.80299</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1013144.25222</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1018879.57386</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>842022.409</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>25001.70046</v>
@@ -2558,16 +2669,16 @@
         <v>14902.39132</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>20112.5234</v>
+        <v>20116.38953</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>22050.99622</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>24576.24484</v>
+        <v>24607.34751</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>40177.66858</v>
+        <v>40446.48598999999</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>35886.43735</v>
@@ -2576,55 +2687,65 @@
         <v>38644.25827</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>47193.63318</v>
+        <v>47200.29789</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>41186.12118</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>42119.50296</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>48741.346</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-98480.76383</v>
+        <v>-98480.76383000001</v>
       </c>
       <c r="D47" s="47" t="n">
         <v>-132185.60057</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-209939.7907</v>
+        <v>-209966.22007</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-68573.94441</v>
+        <v>-69007.92319</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-150177.89787</v>
+        <v>-151748.96769</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-145480.38113</v>
+        <v>-144738.99179</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-124579.98438</v>
+        <v>-138536.01127</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-426896.6978</v>
+        <v>-417202.20702</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>-364400.59916</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-835404.1043699998</v>
+        <v>-835956.95925</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-585385.55532</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-567054.24225</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-1048523.101</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>105550.5624</v>
@@ -2633,37 +2754,42 @@
         <v>168946.10274</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>203363.41183</v>
+        <v>203368.07284</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>267070.05131</v>
+        <v>267404.01013</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>304342.77785</v>
+        <v>306900.6262</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>342274.88475</v>
+        <v>350974.55411</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>633966.8830700001</v>
+        <v>664571.3878599999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>505792.77443</v>
+        <v>506668.14725</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>535931.50807</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>777570.2752500001</v>
+        <v>778278.9153500001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>615339.3329500001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>625086.0708</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>911334.005</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>6840.62383</v>
@@ -2675,7 +2801,7 @@
         <v>1535.22582</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>516.15261</v>
+        <v>526.96903</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>2725.27104</v>
@@ -2684,10 +2810,10 @@
         <v>3849.72426</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>8136.89099</v>
+        <v>8338.82922</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>6564.332230000001</v>
+        <v>6564.57423</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>5620.73887</v>
@@ -2696,91 +2822,106 @@
         <v>6978.98985</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>5163.551530000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>5187.34012</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>10053.792</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>98709.93857</v>
+        <v>98709.93857000001</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>167254.50766</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>201828.18601</v>
+        <v>201832.84702</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>266553.8987</v>
+        <v>266877.0411</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>301617.50681</v>
+        <v>304175.35516</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>338425.16049</v>
+        <v>347124.82985</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>625829.9920799999</v>
+        <v>656232.5586399999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>499228.4421999999</v>
+        <v>500103.57302</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>530310.7692</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>770591.2853999999</v>
+        <v>771299.9255</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>610175.78142</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>619898.7306799999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>901280.213</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>94502.10299000001</v>
+        <v>94502.10299</v>
       </c>
       <c r="D51" s="47" t="n">
         <v>134174.28005</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>363071.1243099999</v>
+        <v>363097.65834</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>157700.97954</v>
+        <v>157898.34464</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>149942.66431</v>
+        <v>151393.16731</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>234361.76849</v>
+        <v>235629.69496</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>252518.1008</v>
+        <v>260825.70611</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>398901.2383</v>
+        <v>399303.10573</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>305034.70111</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>453246.2577000001</v>
+        <v>453895.47884</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>362748.68457</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>368688.27011</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>374244.173</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2021.06407</v>
@@ -2798,10 +2939,10 @@
         <v>2468.17678</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>5854.03196</v>
+        <v>5854.031959999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1311.34886</v>
+        <v>1363.65912</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>6872.45424</v>
@@ -2810,19 +2951,24 @@
         <v>10275.2912</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>4419.75234</v>
+        <v>4423.77163</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>11652.27142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>11677.33419</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>31046.202</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>8817.245879999999</v>
+        <v>8817.24588</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>4198.49425</v>
@@ -2831,34 +2977,39 @@
         <v>5345.470810000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>6386.14217</v>
+        <v>6427.33816</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>8154.792439999999</v>
+        <v>8404.159170000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>13599.84042</v>
+        <v>13607.44212</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>7865.43293</v>
+        <v>9572.37743</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>6439.52058</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>7802.8204</v>
+        <v>7802.820400000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>12294.08031</v>
+        <v>12295.58911</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>14468.40457</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>14885.21447</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>7565.306</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>83663.79304</v>
@@ -2867,76 +3018,86 @@
         <v>127864.3263</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>355704.37633</v>
+        <v>355730.91036</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>149957.90559</v>
+        <v>150114.0747</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>139319.69509</v>
+        <v>140520.83136</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>214907.89611</v>
+        <v>216168.22088</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>243341.31901</v>
+        <v>249889.66956</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>385589.26348</v>
+        <v>385991.1309099999</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>286956.58951</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>436532.42505</v>
+        <v>437176.1181</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>336628.00858</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>342125.72145</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>335632.665</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-87432.30442</v>
+        <v>-87432.30441999999</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>-97413.77787999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-369647.5031799999</v>
+        <v>-369695.80557</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>40795.12736</v>
+        <v>40497.7423</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>4222.215669999989</v>
+        <v>3758.491199999988</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-37567.26486999999</v>
+        <v>-29394.13264</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>256868.79789</v>
+        <v>265209.67048</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-320005.16167</v>
+        <v>-309837.1655</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>-133503.7922</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-511080.08682</v>
+        <v>-511573.52274</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-332794.9069400001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-310656.4415600001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-511433.269</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>24634.9548</v>
@@ -2945,37 +3106,42 @@
         <v>34222.18963</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>44703.54241</v>
+        <v>44703.54240999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>63527.9546</v>
+        <v>63582.06293</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>69532.04579999999</v>
+        <v>69834.08765</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>82108.40961999999</v>
+        <v>82719.89244</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>94895.81816</v>
+        <v>102146.449</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>89663.35171</v>
+        <v>91415.41625999998</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>96611.51628</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>139165.65461</v>
+        <v>139629.3419</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>181700.90427</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>184265.89115</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>254614.737</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>-112067.25922</v>
@@ -2984,34 +3150,37 @@
         <v>-131635.96751</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-414351.04559</v>
+        <v>-414399.34798</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-22732.82724</v>
+        <v>-23084.32063</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-65309.83012999999</v>
+        <v>-66075.59645</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-119675.67449</v>
+        <v>-112114.02508</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>161972.97973</v>
+        <v>163063.22148</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-409668.51338</v>
+        <v>-401252.58176</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-230115.3084799999</v>
+        <v>-230115.30848</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-650245.7414300001</v>
+        <v>-651202.86464</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-514495.81121</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-494922.33271</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-766048.0060000001</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>10564</v>
@@ -3038,34 +3210,37 @@
         <v>11316</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>11275</v>
+        <v>11277</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>10466</v>
+        <v>10481</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>9626</v>
+        <v>9659</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>9414</v>
+        <v>9458</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>9626</v>
+        <v>9746</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>9826</v>
+        <v>9862</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>10282</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>10493</v>
+        <v>10808</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>10645</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>11230</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>11625</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>